--- a/data/excel_files/월_나스닥지수.xlsx
+++ b/data/excel_files/월_나스닥지수.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegseungho/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegseungho/건국대학교/2020-2/졸업프로젝트/데이터/최종정제/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8693288E-2D2D-384F-9BB8-4F0CC106B23F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C980BCDA-F76F-CE4F-8F8E-5140BCCA9E07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19040" yWindow="3840" windowWidth="20380" windowHeight="16940" xr2:uid="{DA384875-880E-864E-B850-EF8B939DB745}"/>
+    <workbookView xWindow="15460" yWindow="3840" windowWidth="20380" windowHeight="16940" xr2:uid="{DA384875-880E-864E-B850-EF8B939DB745}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>날짜</t>
   </si>
@@ -689,9 +689,6 @@
   </si>
   <si>
     <t>2020년 12월</t>
-  </si>
-  <si>
-    <t>2021년 1월</t>
   </si>
 </sst>
 </file>
@@ -1061,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E116A57B-CDD7-6148-B341-9056C268DF6F}">
-  <dimension ref="A1:B218"/>
+  <dimension ref="A1:B217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B218"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2805,14 +2802,6 @@
         <v>12888.28</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B218" s="2">
-        <v>12998.5</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
